--- a/topics-k66.xlsx
+++ b/topics-k66.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanodell/Documents/Code/all-women-shortlists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D5C0C-C8D0-DE4A-8870-3394AF6746D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32EA25-A86C-3C4C-9846-B9E876E639A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16380" xr2:uid="{4429A423-80BE-9046-9A14-897357C39B79}"/>
   </bookViews>
@@ -36,21 +36,12 @@
     <t>" = "</t>
   </si>
   <si>
-    <t>Employment/Trade Unions</t>
-  </si>
-  <si>
-    <t>Legal System</t>
-  </si>
-  <si>
     <t>Roads</t>
   </si>
   <si>
     <t>Housing</t>
   </si>
   <si>
-    <t>Police, Firefighters, Prisons</t>
-  </si>
-  <si>
     <t>Northern Ireland</t>
   </si>
   <si>
@@ -60,51 +51,27 @@
     <t>Schools</t>
   </si>
   <si>
-    <t>Energy &amp; Climate Change</t>
-  </si>
-  <si>
     <t>Defence</t>
   </si>
   <si>
     <t>Parliament</t>
   </si>
   <si>
-    <t>International Politics</t>
-  </si>
-  <si>
     <t>Ministers</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>Regional Development</t>
-  </si>
-  <si>
-    <t>Communications/Telecommunications</t>
-  </si>
-  <si>
     <t>Immigration</t>
   </si>
   <si>
-    <t>Health System</t>
-  </si>
-  <si>
-    <t>International Development</t>
-  </si>
-  <si>
     <t>Benefits &amp; disability</t>
   </si>
   <si>
-    <t>Sport and culture</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
-    <t>Higher education and skills</t>
-  </si>
-  <si>
     <t>Concurring point</t>
   </si>
   <si>
@@ -132,12 +99,6 @@
     <t>People</t>
   </si>
   <si>
-    <t>Wales and Scotland</t>
-  </si>
-  <si>
-    <t>Alcohol and tobacco</t>
-  </si>
-  <si>
     <t>Place names</t>
   </si>
   <si>
@@ -150,9 +111,6 @@
     <t>Private companies</t>
   </si>
   <si>
-    <t>Environment and Fishing</t>
-  </si>
-  <si>
     <t>Crime</t>
   </si>
   <si>
@@ -201,30 +159,12 @@
     <t>Locations</t>
   </si>
   <si>
-    <t>Jobs &amp; Manufacturing</t>
-  </si>
-  <si>
-    <t>Small Business</t>
-  </si>
-  <si>
-    <t>Agreement/Disagreement</t>
-  </si>
-  <si>
-    <t>Voluntary Sector</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Social Care</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Media and Animals</t>
-  </si>
-  <si>
     <t>",</t>
   </si>
   <si>
@@ -235,6 +175,66 @@
   </si>
   <si>
     <t>Middle East</t>
+  </si>
+  <si>
+    <t>Sport &amp; culture</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Police, firefighters &amp; prison</t>
+  </si>
+  <si>
+    <t>Legal system</t>
+  </si>
+  <si>
+    <t>Employment &amp; unions</t>
+  </si>
+  <si>
+    <t>Energy &amp; climate change</t>
+  </si>
+  <si>
+    <t>International politics</t>
+  </si>
+  <si>
+    <t>Regional development</t>
+  </si>
+  <si>
+    <t>Health system</t>
+  </si>
+  <si>
+    <t>International development</t>
+  </si>
+  <si>
+    <t>Higher education &amp; skills</t>
+  </si>
+  <si>
+    <t>Alcohol &amp; tobacco</t>
+  </si>
+  <si>
+    <t>Wales &amp; Scotland</t>
+  </si>
+  <si>
+    <t>Environment &amp; fishing</t>
+  </si>
+  <si>
+    <t>Jobs &amp; manufacturing</t>
+  </si>
+  <si>
+    <t>Small business</t>
+  </si>
+  <si>
+    <t>Voluntary sector</t>
+  </si>
+  <si>
+    <t>Agreement &amp; disagreement</t>
+  </si>
+  <si>
+    <t>Social care</t>
+  </si>
+  <si>
+    <t>Media and animals</t>
   </si>
 </sst>
 </file>
@@ -587,11 +587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC2FFEB-7247-1B4F-B643-7CA9C711538D}">
   <dimension ref="B5:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="54.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -611,14 +614,14 @@
         <v xml:space="preserve">(1) </v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I5" t="str">
         <f>_xlfn.CONCAT(B5:H5)</f>
-        <v>"Topic 1" = "(1) Employment/Trade Unions",</v>
+        <v>"Topic 1" = "(1) Employment &amp; unions",</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -639,14 +642,14 @@
         <v xml:space="preserve">(2) </v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ref="I6:I69" si="1">_xlfn.CONCAT(B6:H6)</f>
-        <v>"Topic 2" = "(2) Legal System",</v>
+        <v>"Topic 2" = "(2) Legal system",</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -667,10 +670,10 @@
         <v xml:space="preserve">(3) </v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
@@ -695,10 +698,10 @@
         <v xml:space="preserve">(4) </v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
@@ -723,14 +726,14 @@
         <v xml:space="preserve">(5) </v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 5" = "(5) Police, Firefighters, Prisons",</v>
+        <v>"Topic 5" = "(5) Police, firefighters &amp; prison",</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -751,10 +754,10 @@
         <v xml:space="preserve">(6) </v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
@@ -779,10 +782,10 @@
         <v xml:space="preserve">(7) </v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
@@ -807,10 +810,10 @@
         <v xml:space="preserve">(8) </v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
@@ -835,14 +838,14 @@
         <v xml:space="preserve">(9) </v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 9" = "(9) Energy &amp; Climate Change",</v>
+        <v>"Topic 9" = "(9) Energy &amp; climate change",</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -863,10 +866,10 @@
         <v xml:space="preserve">(10) </v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
@@ -891,10 +894,10 @@
         <v xml:space="preserve">(11) </v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
@@ -919,14 +922,14 @@
         <v xml:space="preserve">(12) </v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 12" = "(12) International Politics",</v>
+        <v>"Topic 12" = "(12) International politics",</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -947,10 +950,10 @@
         <v xml:space="preserve">(13) </v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
@@ -975,10 +978,10 @@
         <v xml:space="preserve">(14) </v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
@@ -1003,10 +1006,10 @@
         <v xml:space="preserve">(15) </v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
@@ -1031,14 +1034,14 @@
         <v xml:space="preserve">(16) </v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 16" = "(16) Regional Development",</v>
+        <v>"Topic 16" = "(16) Regional development",</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -1059,14 +1062,14 @@
         <v xml:space="preserve">(17) </v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 17" = "(17) Communications/Telecommunications",</v>
+        <v>"Topic 17" = "(17) Communications",</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -1087,10 +1090,10 @@
         <v xml:space="preserve">(18) </v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
@@ -1115,14 +1118,14 @@
         <v xml:space="preserve">(19) </v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 19" = "(19) Health System",</v>
+        <v>"Topic 19" = "(19) Health system",</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -1143,14 +1146,14 @@
         <v xml:space="preserve">(20) </v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 20" = "(20) International Development",</v>
+        <v>"Topic 20" = "(20) International development",</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -1171,10 +1174,10 @@
         <v xml:space="preserve">(21) </v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
@@ -1199,14 +1202,14 @@
         <v xml:space="preserve">(22) </v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 22" = "(22) Sport and culture",</v>
+        <v>"Topic 22" = "(22) Sport &amp; culture",</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -1227,10 +1230,10 @@
         <v xml:space="preserve">(23) </v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
@@ -1255,14 +1258,14 @@
         <v xml:space="preserve">(24) </v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 24" = "(24) Higher education and skills",</v>
+        <v>"Topic 24" = "(24) Higher education &amp; skills",</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -1283,10 +1286,10 @@
         <v xml:space="preserve">(25) </v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
@@ -1311,10 +1314,10 @@
         <v xml:space="preserve">(26) </v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
@@ -1339,10 +1342,10 @@
         <v xml:space="preserve">(27) </v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
@@ -1367,10 +1370,10 @@
         <v xml:space="preserve">(28) </v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
@@ -1395,10 +1398,10 @@
         <v xml:space="preserve">(29) </v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="1"/>
@@ -1423,10 +1426,10 @@
         <v xml:space="preserve">(30) </v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="1"/>
@@ -1451,10 +1454,10 @@
         <v xml:space="preserve">(31) </v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="1"/>
@@ -1479,10 +1482,10 @@
         <v xml:space="preserve">(32) </v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="1"/>
@@ -1507,10 +1510,10 @@
         <v xml:space="preserve">(33) </v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="1"/>
@@ -1535,14 +1538,14 @@
         <v xml:space="preserve">(34) </v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 34" = "(34) Wales and Scotland",</v>
+        <v>"Topic 34" = "(34) Wales &amp; Scotland",</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -1563,14 +1566,14 @@
         <v xml:space="preserve">(35) </v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 35" = "(35) Alcohol and tobacco",</v>
+        <v>"Topic 35" = "(35) Alcohol &amp; tobacco",</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -1591,10 +1594,10 @@
         <v xml:space="preserve">(36) </v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="1"/>
@@ -1619,10 +1622,10 @@
         <v xml:space="preserve">(37) </v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="1"/>
@@ -1647,10 +1650,10 @@
         <v xml:space="preserve">(38) </v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="1"/>
@@ -1675,10 +1678,10 @@
         <v xml:space="preserve">(39) </v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
@@ -1703,14 +1706,14 @@
         <v xml:space="preserve">(40) </v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 40" = "(40) Environment and Fishing",</v>
+        <v>"Topic 40" = "(40) Environment &amp; fishing",</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
@@ -1731,10 +1734,10 @@
         <v xml:space="preserve">(41) </v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="1"/>
@@ -1759,10 +1762,10 @@
         <v xml:space="preserve">(42) </v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="1"/>
@@ -1787,10 +1790,10 @@
         <v xml:space="preserve">(43) </v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="1"/>
@@ -1815,10 +1818,10 @@
         <v xml:space="preserve">(44) </v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="1"/>
@@ -1843,10 +1846,10 @@
         <v xml:space="preserve">(45) </v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="1"/>
@@ -1871,10 +1874,10 @@
         <v xml:space="preserve">(46) </v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="1"/>
@@ -1899,10 +1902,10 @@
         <v xml:space="preserve">(47) </v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="1"/>
@@ -1927,10 +1930,10 @@
         <v xml:space="preserve">(48) </v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="1"/>
@@ -1955,10 +1958,10 @@
         <v xml:space="preserve">(49) </v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="1"/>
@@ -1983,10 +1986,10 @@
         <v xml:space="preserve">(50) </v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="1"/>
@@ -2011,10 +2014,10 @@
         <v xml:space="preserve">(51) </v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="1"/>
@@ -2039,10 +2042,10 @@
         <v xml:space="preserve">(52) </v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H56" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="1"/>
@@ -2067,10 +2070,10 @@
         <v xml:space="preserve">(53) </v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="1"/>
@@ -2095,10 +2098,10 @@
         <v xml:space="preserve">(54) </v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="1"/>
@@ -2123,10 +2126,10 @@
         <v xml:space="preserve">(55) </v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="1"/>
@@ -2151,10 +2154,10 @@
         <v xml:space="preserve">(56) </v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="1"/>
@@ -2179,10 +2182,10 @@
         <v xml:space="preserve">(57) </v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="1"/>
@@ -2207,14 +2210,14 @@
         <v xml:space="preserve">(58) </v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H62" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 58" = "(58) Jobs &amp; Manufacturing",</v>
+        <v>"Topic 58" = "(58) Jobs &amp; manufacturing",</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
@@ -2235,14 +2238,14 @@
         <v xml:space="preserve">(59) </v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 59" = "(59) Small Business",</v>
+        <v>"Topic 59" = "(59) Small business",</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
@@ -2263,14 +2266,14 @@
         <v xml:space="preserve">(60) </v>
       </c>
       <c r="G64" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 60" = "(60) Agreement/Disagreement",</v>
+        <v>"Topic 60" = "(60) Agreement &amp; disagreement",</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
@@ -2291,14 +2294,14 @@
         <v xml:space="preserve">(61) </v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 61" = "(61) Voluntary Sector",</v>
+        <v>"Topic 61" = "(61) Voluntary sector",</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
@@ -2319,10 +2322,10 @@
         <v xml:space="preserve">(62) </v>
       </c>
       <c r="G66" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="1"/>
@@ -2347,14 +2350,14 @@
         <v xml:space="preserve">(63) </v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 63" = "(63) Social Care",</v>
+        <v>"Topic 63" = "(63) Social care",</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
@@ -2375,10 +2378,10 @@
         <v xml:space="preserve">(64) </v>
       </c>
       <c r="G68" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
@@ -2403,14 +2406,14 @@
         <v xml:space="preserve">(65) </v>
       </c>
       <c r="G69" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H69" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 65" = "(65) Media and Animals",</v>
+        <v>"Topic 65" = "(65) Media and animals",</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
@@ -2431,10 +2434,10 @@
         <v xml:space="preserve">(66) </v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" ref="I70" si="3">_xlfn.CONCAT(B70:H70)</f>

--- a/topics-k66.xlsx
+++ b/topics-k66.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanodell/Documents/Code/all-women-shortlists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32EA25-A86C-3C4C-9846-B9E876E639A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A3058-2FE4-D443-98D5-98E09ECF2E78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16380" xr2:uid="{4429A423-80BE-9046-9A14-897357C39B79}"/>
   </bookViews>
@@ -234,7 +234,7 @@
     <t>Social care</t>
   </si>
   <si>
-    <t>Media and animals</t>
+    <t>Media &amp; animals</t>
   </si>
 </sst>
 </file>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="1"/>
-        <v>"Topic 65" = "(65) Media and animals",</v>
+        <v>"Topic 65" = "(65) Media &amp; animals",</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
